--- a/report/test_report.xlsx
+++ b/report/test_report.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="Test Results" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Metrics" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Summary" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Average Accuracy" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Average Accuracy" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,55 +432,60 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Index Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Response Video Title</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Response Text</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Response Video</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Response Snippet Start</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Response Snippet End</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Ground Truth Video Title</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Ground Truth Text</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Ground Truth Video</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Ground Truth Snippet Start</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Ground Truth Snippet End</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
@@ -494,55 +499,60 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13051_t014_main_kaun_mera_kaun_014</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>परिषत 12 बार वेद के अर्थ जानने के लिए शुद्ध महा पुरुष जिसने भगवान को प्राप्त किया हो, उसके पास जाओ वो तुम को संकेत में बता देगा। वेद में क्या लिखा है तुम पढ़ोगे। तो नंतपरमगंभीरम दुर बिगाहियम समुद्र बत 11, 36 समुद्र के समान डूब जाओगे। क्यूँ बेदसचश्वरात्मवतर सूर य 11, 3 तैतालीस बेद भगवान का स्वरुप है। जैसे भगवान बुद्धि से परे है, ऐसे वेद भी बुद्धि से परे हैं। क्यूँ परोक्छबादो बेदो 11, 3 चौवालीस परोक्ष बाद है। वेद परोक्छबादमाने क्या शब्द। कुछ कुछ शब्द लिखा है जीव अर्थ है ब्रह्म शब्द लिखा है। आत्मा अर्थ है ब्रह्म शब्द लिखा है आकाश अर्थ है ब्रह्म।</t>
+          <t>13092_t055_mkmk_055</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13051_t014_main_kaun_mera_kaun_014.mp4</t>
+          <t>इन सब ग्रंथों को इतना बढ़िया प्रश्न किया उद्धव ने कृष्ण से या सी बहु ने ब्रह्म बाद शाम विकल्प प्राधान मुताह 1 मुख्यता है हमारे संसार में तमाम शास्त्र वेद बनाने वाले अरे वेद को प्रकट किया है भगवान ने। ठीक है आप ही ने किया है और शास्त्र भी आपके जनों ने बनाया है। लेकिन 1 ये कहता है? 1 ये कहता है? 1 वो कहता है विभिन्न बिभिन्न नहीं को ऐसी प्रमाणम सब अलग अलग बात करते हैं। आचार्यों में देखो 1 वेदांत के ब्रह्म सूत्रों का भक्त शंकराचार्ज कुछ लिख बल्ला है नंबर का आपस में लड़ते हैं महाराज अलग अलग इतने रास्ते क्यों बन गए पहला क्वेश्चन और अगर बन गए तो</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>00:52:41,800</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13092_t055_mkmk_055.mp4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>00:54:18,870</t>
+          <t>01:06:32,310</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>01:08:08,430</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>तीन प्रकार की वाणी होती है— विनिर्गत वाणी; स्मृत वाणी और कृत वाणी।</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>00:39:00,100</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>00:39:09,600</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -556,55 +566,60 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>13092_t055_mkmk_055</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>ने 100 अट्ठासी उपनिषदों को बताया है, लिखा है। और इनके नंबर में भी श्रीराम शास्त्री के कुछ भेद है। हमारे यहां विद्वानों, ने, आचार्यों ने अपने अपने हिसाब से नंबर किए हैं। इसलिए कुछ मत बहुमत वैश्म है। वेदांत में देख लो जिसको ब्रह्म सूत्र कहते हैं। शारीरिक भाष्य कहते हैं। तो सबसे इम्पोर्टेंट। हमारे यहाँ छे दर्शन होते हैं। आस्तिक दर्शन कहलाते हैं? वेदांत न्याय, सान, मिमांसा, पा, तंजलवैशेशिक, इनमें और दर्शन जो हैं वो तो तत्वज्ञान बताते हैं और दुःख निवृत्ति उनका उद्देश्य है। उनका विशेष महत्व नहीं है। केवल 1 वेदांत शास्त्र हमारे यहाँ ऐसा है जो आनंद प्राप्ति का लक्ष्य बताता है और</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13092_t055_mkmk_055.mp4</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>00:09:03,510</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>00:10:39,400</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>तीन प्रकार की वाणी होती है— विनिर्गत वाणी; स्मृत वाणी और कृत वाणी।</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>00:39:00,100</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>00:39:09,600</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -618,55 +633,60 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>13051_t014_main_kaun_mera_kaun_014</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>पहले कैसे लोग रिकॉर्ड करते थे, तो कहते थे महाराज जी, हमारा कैसे खत्म हो जायेगा? तो हम ऐसे हाथ उठा देंगे। तो आप तो थोड़ी देर रुक जाइएगा। यानी कुछ गोली ली निकालिए कुछ कीजिए। तब तक मैं कैचर बदल लूं। तो हमको वैसे मारना पड़ता था, नहीं तो वो उनके टेप में आगे नहीं। और ये फिलोसॉफी तो ऐसा सब्जेक्ट है। 1 शब्द भी गड़बड़ कर, 2 तो सब उल्टा हो जाएगा। अब देखो न। 1 शब्द की तो बात है। 1 कहता है? ब्रह्म निराकार ही होता है, बस लड़ाई होगी, ब्रह्म साकार ही होता है। अब असल में क्या है ही न, कहो भी कह। 2 झगड़ा ब्रह्म निराकार भी होता है, ब्रह्म साकार भी होता है। 1 शब्द का मामला सब उल्टा हो जाता है। तो</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13051_t014_main_kaun_mera_kaun_014.mp4</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>00:41:19,650</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>00:42:48,350</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>तीन शरीर होते हैं; हम लोगों के | इसका नाम—  स्थूल शरीर; और एक होता है सूक्ष्म शरीर; और एक होता है कारण शरीर।</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>00:21:48,900</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>00:22:03,400</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -680,55 +700,60 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>13103_t066_mkmk_066</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>यम ब्रह्मा भरुणेदररुद्रमरुत हुन दिव्यईश दबाई बेदई साग पदक्रमोपनशदईर गायमतियम sabगaधयanaws्थित तदगतनननशा पश्यात योग नो yasयातमनबिदोसुरा सुरगण देवाय रस मई नामा रसोया परमानद 1 ब vida sda sreraधaकrिsn रुपाभ्याम 10 मई नमो नमा नमा कमाल ना भाय नमा कमल मानने नम कमल पादा नमस्ते कम ले कण</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13103_t066_mkmk_066.mp4</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>00:00:01,300</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>00:03:14,380</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>00:31:23,700</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>00:31:25,600</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -742,32 +767,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13102_t065_mkmk_065</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>कौन मेरा कौन इन 2 प्रश्नों का समाधान करना है? क्यों ये प्रश्न हो सकता है? हम कोई भी कार्य करते हैं तो पहले क्यों आता है? कारण आता है, पश्चात कार्य होता है। वेद कहता है? कारणन बिना कार्यम न। कदाचन विद्यते 1, 37 योग शिखोपनिषद कारणेन बिना कार्यम नो देती 81 कृपा दिभूत नारायणों पनिषद। हमारे दर्शन शास्त्र भी कहते हैं। प्रयोजन मनु्दिश्यनमंदों पे प्रवर्तते घोर से घोर मूर्ख भी बिना प्रयोजन के, बिना कारण के कोई कार्य नहीं करता। हमारी आँख बंद हैं, अब खोलना चाहिए, क्यों, अब सोना चाहिए? क्यों हर</t>
+          <t>13091_t054_mkmk_054</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13102_t065_mkmk_065.mp4</t>
+          <t>dobindagopaaa hallo kala big गो बोलिए लाडली ला लगी अब आप लोग सावधान हो जाएं। मैं कौन मेरा कौन इन दोनों प्रश्नों का समाधान करना है। तदर्थ मैंने आप लोगों को बताया कि इन दोनों प्रश्नों का समाधान न मनुष्यों से हो सकता है, न देवताओं से हो सकता है, न प्रत्यक्ष प्रमाण से हो सकता है, न अनुमान प्रमाण से हो सकता है। अत शब्द प्रमाण की शरणागति करनी होगी। शब्द प्रमाण में 2 प्रकार के ग्रंथ आते हैं। 1 विनिर्गत ग्रंथ और 1 स्मृत ग्रंथ। तो विनिर्गत ग्रंथ तो वेद हैं।</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>00:07:32,140</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13091_t054_mkmk_054.mp4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:09:10,620</t>
+          <t>00:05:52,750</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:09:38,890</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -791,6 +816,11 @@
         </is>
       </c>
       <c r="L6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -804,55 +834,60 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13091_t054_mkmk_054</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>जे न श्रोत्र मिदमशुदमयतप्राणे न प्राणित जेन प् प्राण प्रणीयते। 141-5141 साथ 1 केनो उन्हीं की शक्ति से। यह हमारी इंद्रियां मन बुद्धि अपना अपना कर्म करते हैं। तो कुत्ते के शरीर में भी तो इन्द्रिय मन बुद्धि है। क्या कर्म करो ये तुम्हारे हाथ में, लेकिन कर्म करने की शक्ति वो देते हैं। प्रयत्न पेस्तो प्रतिश्रद्धा भैयरथ्या दिव्या, वेदांत सूत्र है। 2, 3, 41 सदा हमारे साथ रहते हैं। बस इतना सा हम रियलाइज कर लें, भगवत प्राप्त करतल, गत मान लें। वो हमारे अंदर बैठे हैं। फिर तो हमको नशा हो जाए। 1 अरब 1 अरब पा के तो हम होश में नहीं रहते। और न कोडी ब्रह्माण्ड नायक अन्दर बैठा है। अगर ये मान लें सेंट परसेंट हो जाए। वेद</t>
+          <t>13041_t004_main_kaun_mera_kaun_004</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13091_t054_mkmk_054.mp4</t>
+          <t>हैं। सजाते सम्बन्ध क्या 1 जाति के हैं। हम दोनों भगवान भी चेतन, हम भी चेतन, व हमारा अंश ही, हम, उसके अंश वो, हमारा माता, पिता, भ्राता सब कुछ और सख् संबन्ध हमारा सखा है, हमको सदा शक्ति देता है जीवित रहने का। प्रत्येक इंद्रियों में, मन में, बुद्धि में, त कर्म करने की शक्ति देता है। केनोपनिषद कहता है य बचा नब्बुडुतमजेन बाग बिदके तदेव ब्रह्म तम बिधि, यन मन सान मनुतेजेनाहुर मनोमतम तदेव ब्रह्म पम बिद्धि या चक्छुसानपशयति, जे न चकछुमपश्यतितदेव ब्रह्म या छरोतरेननचुणोती, ये न सत्र तदेव ब्रह्म या प्राण न प्राणि। ये न प्राण प्रणीयते। तदेव ब्रह्म बिद्धि यानि</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>01:23:31,280</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13041_t004_main_kaun_mera_kaun_004.mp4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>01:25:06,180</t>
+          <t>00:17:57,450</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:19:40,470</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>यद्यपि कुछ आइडिया होता है कि जो ‘मेरा’ नहीं है; वो ‘मैं’ होगा।</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>7:22.53</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>7:34.64</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -866,55 +901,60 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>13038_t001_main_kaun_mera_kaun_001</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>लेकिन आत्मा को उसके लिए दुनिया में कोई खुर्दबीन बनी है। न बनेगी। न। तो दुनिया में कोई बुद्धिमान पैदा हुआ था। न होगा। जो मैं को जान लो। बुद्धि से आईडिया से आईडिया, धुआ आ गए। आइडिया कहते हैं इसको यत्र, यत्र धूमस तततत्रागनी। लेकिन यहाँ आइडिया काम नहीं देगा। न प्रत्यक्ष न। अनुमान। तो तीसरा प्रमाण है। शब्द प्रमाण। शब्द प्रमाण से जाना जायेगा। मैं कौन हूँ, मेरा कौन है शब्द प्रमाण? किसे कहते हैं? शब्द प्रमाण। माने। ऐसा प्रमाण जिसके शब्द पर कोई डाउट न हो। तो ऐसे 2 होते हैं। 1 तो जो मय को जान चूका है। ऐसा</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/10-2024/13038_t001_main_kaun_mera_kaun_001.mp4</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>00:32:21,750</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>00:33:54,740</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>यद्यपि कुछ आइडिया होता है कि जो ‘मेरा’ नहीं है; वो ‘मैं’ होगा।</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>7:22.53</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>7:34.64</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -928,55 +968,60 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>13061_t024_main_kaun_mera_kaun_024</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>उस किरण में कहाँ से आई? सूर्य से? तो फिर हमारी हैसियत, क्या है? हमारी तो पर्सनैलिटी भगवान पर डिपेंड करती है। इसलिए वेद कहता है सकारण करना। दीपा, दीपा, स्वेता, शतरोपनिशचछानौ प्रधान के तरगपतिरगुणशा श्वेता चतरो परिषद छे 16 प्रधान पुरुष स्वरा भगवान, हे जीव और माया का अध्यक्ष है, गवर्नर है। उसके बिना न जीव का जीवत्व है। न माया बिचारी जड़ वस्त का जड़त्व हैं, लेकिन उसकी शक्ति पाकर देखो, माया का हाल सो माया सब जगहीं नचावा शिव चतुरानन देखी, डेरा ही अपर जीव के ही लेके माही शिव बिरनचिकामोहई को है</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13061_t024_main_kaun_mera_kaun_024.mp4</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>00:29:15,380</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>00:30:37,300</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>भगवान् ने कहा—-“हाँ; रे! मैं सब जगह रहता हूँ; देख! देख ले आँख से; तेरा काल हूँ। मैं...मैं राक्षस-पाक्षस नहीं मानता; गन्दा-फंदा नहीं मानता; मैं सर्वत्र रहता हूँ।”</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>0:35:30</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>0:35:53</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -990,55 +1035,60 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13061_t024_main_kaun_mera_kaun_024</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>कोई व्यक्ति कहीं भी, कभी भी रा शब्द को बोलता है। raबडाrातो मेरा रोम रोम रोमांचित हो जाता है। हर्ष के साथ कभी यह माँ बोलेगा, भले ही उसकी मंशा रावण। बोलने के यही भगवन नाम हैं, जो हम लोग संकीर्तन करते हैं। इसी के विषय में भगवान शंकर कह रहे हैं। अतो भगवन नाम, संकीर्तन आदि में बहुत अधिक मन का संयोग करके उसकी इंपार्टेंस को रियलाइज करते हुए बोलना चाहिए। भोग गोबिंद गो कला गोला गो गो पाला a बोली वृन्दावन बिहारी लाल की अब आप लोग सावधान हो जायें। मैं कौन मेरा कौन इन प्रश्नों के समाधान में अब तक आप</t>
+          <t>13038_t001_main_kaun_mera_kaun_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13061_t024_main_kaun_mera_kaun_024.mp4</t>
+          <t>बत्तर। तो इससे अच्छे तो हम हैं। यह हमारा स्वभाव है। तो हम जान नहीं सकते। इसलिए बेद का अवलंब लेना पड़ेगा। और वेद को भी जानने वाला होना चाहिए, ऐसा विचित्र हैं वेद परोकछुभादोभेदो। भागवत 11, 3 चौवालीस क्या मतलब, ये वेद में शब्द कुछ है, कुछ है कोच को लेकर के। अगर वेद के शब्द का अर्थ करोगे गये। भगवान के लिए। 1 शब्द आया है, प्राण, 1 शब्द आया है आकाश, 1 शब्द आया है जीव। 1 शब्द आया है आत्मा भगवान के लिए। अब हम उसका अर्थ करेंगे। अगर कोष लेकर के तो सब चौपट हो जाएगा। बेदस्यचेस्वरात्मतवा</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>00:06:54,180</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/10-2024/13038_t001_main_kaun_mera_kaun_001.mp4</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>00:11:07,440</t>
+          <t>00:46:57,660</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:48:47,440</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>तीन प्रकार की वाणी होती है— विनिर्गत वाणी; स्मृत वाणी और कृत वाणी।</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>39:00.1</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>39:09.6</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1052,55 +1102,60 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13065_t028_main_kaun_mera_kaun_028</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>बिकार जाने अधिकारी वो तुम नहीं देख सकते। जब तक दिव्य दृष्टि न मिले, वो श्री कृष्ण यहाँ आ के खड़े हो जायें तो तुमको प्राकृत दिखाई पड़ेंगे। हमारी तरह तो हैं, जरा थोड़े अच्छे हैं, सुन्दरता जरा और और अगर और आपके अन्दर पाप है, पाप और खराब लगेंगे, ये तो हमसे बत्तर है। 1 ही रूप में सब अपनी अपनी भावना के अनुसार लाभ लेंगे। ये दिव् शरीर का कमाल है और वास्तविक लाभ दि दृष्टि वाले महापुरुष लोग वो देखते हैं और लोग नहीं देख सकते। वो भगवान का शरीर भगवान ही है। प्रमाण कल बताएंगे बोलिए लाडली लाल की।</t>
+          <t>13108_t071_mkmk_071</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13065_t028_main_kaun_mera_kaun_028.mp4</t>
+          <t>पड़ते हैं यहाँ आप लोग बैठे हैं कितने उड़ रहे हैं जीव कहाँ उड़ रहे हैं अरे ये आँख नहीं देख रही हैं, खुर्दबीन लगाकर देखो तो मालूम पड़ जाए वो जा रहे हैं पेट में आपके आप बोलते हैं, खाते पीते हैं सब अरे पेट में आपके तमाम जीव हैं, खून देखा है हाँ उसमें जीव दिखते हैं जरा खुद बी सी देखो हर जगह जी तो संसार के पंच महाभूत के समान भी सब नहीं देख सकते हैं आँख से तो भगवान की बात क्या करते हैं भगवान को तो वो आपके बेटे से भी खराब दिखाई पड़ेगा तो आप कहेंगे यही भगवान है धन्य हैं तुम्हारे भगवान, गुरु जी तुमको भी धन्य हैं दोनों को नमस्कार कल ऐसी नहीं आऊंगा मैं तो समझ रहा था की अनन्त कोट कन्दर्प दर्प दलन पतियान हैं,</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>00:52:43,930</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13108_t071_mkmk_071.mp4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>00:54:06,160</t>
+          <t>00:59:35,560</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>01:00:58,560</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>इतना सूक्ष्म है ‘मैं’ कि किसी यंत्र से कोई नहीं देख सका; न देख सकेगा</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>31:23.7</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>31:25.6</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1114,55 +1169,60 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>13038_t001_main_kaun_mera_kaun_001</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>हैं। वो प्रश्न कौन हैं? हम कौन हैं? हमारा कौन है? बस, हम कौन हैं? आपको ये प्रश्न सुनकर कुछ आश्यर्य अवश्य होगा। इसका उत्तर तो सब जानते हैं। नट। कोई कोई जानता है, करोड़ो में कोई जानता है। हम लोगो को भी जानना है। वेद कहता है हे द बेदी, दत, सत्य मस्त नच्चे दिहा बेदिन महति विनष्टि केनो पनिषद 25 अरे मनुष्यों। इस प्रश्न का उत्तर समझना बहुत आवश्यक है। अगर नहीं समझोगे तो बहुत बड़ी हानी होगी। क्या हानी होगी?</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/10-2024/13038_t001_main_kaun_mera_kaun_001.mp4</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>00:07:23,710</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>00:09:21,490</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>समस्त विश्व के समस्त प्राणी केवल एक प्रश्न के हल करने में लगे हैं; वो  प्रश्न कौन है? हम कौन हैं? हमारा कौन है?</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>00:07:09,500</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>00:07:38,800</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1176,55 +1236,60 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>13136_t099_mkmk_099</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>में भेद भी होता है, अभेद भी होता है, अभेद यों है को, वह भी चेतन हैं, हम भी चेतन है, वह भी ज्ञान युक्त हैं, हम भी ज्ञान युक्त हैं, वह भी आनन्द सिंधु हैं और हम भी उसी आनन्द सिंधु के इच्छुक हैं। अर्थात हम कुछ अंश में उससे अभिन्न हैं, अधिक अंशों में भिन्न हैं। अनेक वेद मंत्रों के द्वारा आपको बताया गया है कि वो ब्रह्म इस जीव माया से पृथक हैं। वो सर्व शक्तिमान हैं, ये अल्प शक्तिमान हैं, वो सर्वग्य है, यह अल्पज्ञ है, वो मायाधीश हैं, ये मायाधीन हैं, अनेक अंतर है। वेदांत में बड़ा विस्तृत विचार किया गया है। यथा</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13136_t099_mkmk_099.mp4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>00:12:32,740</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>00:14:07,480</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>तीन शरीर होते हैं; हम लोगों के | इसका नाम—  स्थूल शरीर; और एक होता है सूक्ष्म शरीर; और एक होता है कारण शरीर।</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>00:21:48,900</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>00:22:03,400</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1238,55 +1303,60 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>13137_t100_mkmk_100</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>है। ये शरीर चलाने के लिए भगवान ने बनाया है। क्योंकि शरीर के बिना साधना नहीं हो सकती। तनु बिनु, भजन बेद नहीं बरना। तो ये अवतार का कारण नणामनश्रेजसारथाय। व्यक्त भगवतो निरगुण गुणात्म। 10 वनते, 14 विद्या ने फिर कहा, तेजी पर कल्याण करने के लिए भगवान जन्म लेते हैं और कर्म करते हैं। इसलिए गीता ने कहा जन्म कर्म चमे दिव्यम। अर्जुन, मेरा जन्म भी दिव्य है, कर्म भी दिव्य है और तेरा कर्म दिव्य है। जन्म डिब्बेमे देखो। 3 प्रकार का देह होता है देह। ये शरीर 1 पंच महाभूत का और 1 चिदानंद में देह दिव्य देह और 1 देही</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13137_t100_mkmk_100.mp4</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>00:51:39,620</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>00:53:28,990</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>एक कमरा है; उसमें अँधेरा है। हमने बाहर से दीपक जलाकरके कमरे में रख दिया।तो; दीपक स्वयं प्रकाश है और उसने कमरे में भी प्रकाश कर दिया। दीपक को हमने दूसरे कमरे में लेजाके रख दिया। “तो?” तो कमरे में अँधेरा हो गया। ऐसे ही; ये जीव है; बाहर से इस शरीर में माँ के पेट में आया। आया; और फिर चला गया</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>00:19:21.86</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>00:20:16.86</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1300,50 +1370,60 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13120_t083_mkmk_083</t>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13061_t024_main_kaun_mera_kaun_024</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13120_t083_mkmk_083.mp4</t>
+          <t>ज्ञानी, ध्यानी, ब्रह्मादिक भी मोहित हो जाते हैं। इस वेद का अर्थ नहीं जान सकते। तुम उन भेदों में जाकर। हमने पता लगाया महा पुरुषों के द्वारा अपने आप में, तो पता लगा कि वेद कह रहे हैं, हम भगवान के अंश हैं, भगवान से निकले हैं और कब निकले हैं? क्यों निकले हैं? कब नहीं, क्यों नहीं, ये क्वश्चन नहीं करना। क्यों सदा से निकले है, सनातन हैं कठोर? परिशद कहता है जो नित्या शात पुराना 1, 2, 18 वेदांत कहता है? आत्मा सुरतेरनित्यत्व पाचताब्या 2, 3 18 गीता कहती है? नित्या शास्वत पुराना 2, 20 भागवत</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>00:55:40,300</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13061_t024_main_kaun_mera_kaun_024.mp4</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>00:57:15,180</t>
+          <t>00:17:24,770</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:18:59,800</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>तीन प्रकार की वाणी होती है— विनिर्गत वाणी; स्मृत वाणी और कृत वाणी।</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>00:39:00,100</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>00:39:09,600</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1357,50 +1437,60 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13120_t083_mkmk_083</t>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>13092_t055_mkmk_055</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13120_t083_mkmk_083.mp4</t>
+          <t>ने 100 अट्ठासी उपनिषदों को बताया है, लिखा है। और इनके नंबर में भी श्रीराम शास्त्री के कुछ भेद है। हमारे यहां विद्वानों, ने, आचार्यों ने अपने अपने हिसाब से नंबर किए हैं। इसलिए कुछ मत बहुमत वैश्म है। वेदांत में देख लो जिसको ब्रह्म सूत्र कहते हैं। शारीरिक भाष्य कहते हैं। तो सबसे इम्पोर्टेंट। हमारे यहाँ छे दर्शन होते हैं। आस्तिक दर्शन कहलाते हैं? वेदांत न्याय, सान, मिमांसा, पा, तंजलवैशेशिक, इनमें और दर्शन जो हैं वो तो तत्वज्ञान बताते हैं और दुःख निवृत्ति उनका उद्देश्य है। उनका विशेष महत्व नहीं है। केवल 1 वेदांत शास्त्र हमारे यहाँ ऐसा है जो आनंद प्राप्ति का लक्ष्य बताता है और</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00:55:40,300</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13092_t055_mkmk_055.mp4</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>00:57:15,180</t>
+          <t>00:09:03,510</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:10:39,400</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>तीन प्रकार की वाणी होती है— विनिर्गत वाणी; स्मृत वाणी और कृत वाणी।</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>00:39:00,100</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>00:39:09,600</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1414,50 +1504,60 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13103_t066_mkmk_066</t>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>13099_t062_mkmk_062</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13103_t066_mkmk_066.mp4</t>
+          <t>तीनों ब्रह्म है। हम तो सुन रहे थे ब्रह्म ये कहीं होता है? त्रिविध ब्रह्म में कह रहा है। 3 प्रकार हैं, ब्रह्म के ब्रह्म नहीं है। 31 ब्रह्म के 3 प्रकार हैं। 3 भिन्न भिन्न स्वरूप हैं, तीनों 1 दूसरे से भिन्न हैं। जैसे भोक्ता, ब्रह्म किसे कहते हैं? आत्मा, न, बिधि, शरीर, अमरत, मेतु, बुद्धि, सारथि, विधि, इंद्रिया हयान विषया, सतेश, गोचरान, आत्म इंद्रिय मनोजुक्तमभोक्तेत्या हुर मनि षिण कठोपनिषद 133-134। और ये पैंगलोपनिषद में भी ये मंत्र है। अर्थात 1 रत है उस रथ में कुछ घोडे हैं और घोड़ों के मुंह से 1 रस्सी है घोड़ों को गवर्न करने के लिए और</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>00:57:03,850</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13099_t062_mkmk_062.mp4</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>00:58:35,730</t>
+          <t>00:09:19,190</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:10:54,710</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>तीन शरीर होते हैं; हम लोगों के | इसका नाम—  स्थूल शरीर; और एक होता है सूक्ष्म शरीर; और एक होता है कारण शरीर।</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>00:21:48,900</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>00:22:03,400</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1471,50 +1571,60 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>13120_t083_mkmk_083</t>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13105_t068_mkmk_068</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13120_t083_mkmk_083.mp4</t>
+          <t>ये शरीर का। तुम शरीर तो हो नहीं, काय को फील करते हो। तुम्हारे शरीर को गाली दे रहा है। तुमको तो नहीं दे रहा है। तुम्हारे मकान की ओर। कोई चप्पल मार रहा है। तो क्यों रोते चिल्लाते हो। आज मैं अपने को देही मानता हूँ। इसलिए तो शिशुपाल ने जब सौ गाली दी, भगवान गिन रहे थे। 1, 2, 3, 76, 77, अठत्तर उन्यासी 80। जब सौ पूरे हो गए, तो चक्कर बुलाया और सिर काट दिया। अब सारे राजा राजाओं के सामने ये नाटक हुआ। राजाओं ने देखा, हाँ, ये तो भगवान है। और वो निकली आत्मा और श्री कृष्ण में मिल गई। युधिष्ठर वहीं बैठे थे, उन्होंने अकेले में भगवान से प्रश्न किया। महाराज वो आपमें मिल गया। उसको तो नरक</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>00:55:40,300</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13105_t068_mkmk_068.mp4</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>00:57:15,180</t>
+          <t>00:47:29,510</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:49:06,380</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>00:31:23,700</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>00:31:25,600</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1528,27 +1638,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13120_t083_mkmk_083</t>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>13062_t025_main_kaun_mera_kaun_025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13120_t083_mkmk_083.mp4</t>
+          <t>है, कुत्तों की हेल्प ले करके और मक्कारों को पकड़ते हैं। तो हमारा ये प्रत्यक्ष प्रमाणित संसार में ही परिपूर्ण नहीं हो सकता। अरे सोचो न। आपके, अंदर क्या क्या हैं? ये मन क्या चीज है? किधर रहता है? किसी ने देखा, बुद्धि कहाँ रहती है, किसी ने देखा। तो प्रत्यक्ष प्रमाण के आगे अनुमानक प्रमाण आता है। उससे बहुत कम चलता है। संसार में, अनुमान से यहाँ हुआ, दिख रहा है, दूर से। इसका मतलब, वहाँ आग होगी। बहुत सारा काम। संसार का हमारा अनुमान से चलता है, तर्क से चलता है। लेकिन बहुत सा एरिया ऐसा है जहाँ नशा तर्केण मतिरापनेयाकठो पनिश 129 तरका</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>00:55:40,300</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13062_t025_main_kaun_mera_kaun_025.mp4</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>00:57:15,180</t>
+          <t>00:08:30,900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:10:04,580</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1572,6 +1687,11 @@
         </is>
       </c>
       <c r="L19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1585,50 +1705,60 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13120_t083_mkmk_083</t>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>13041_t004_main_kaun_mera_kaun_004</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13120_t083_mkmk_083.mp4</t>
+          <t>हैं। सजाते सम्बन्ध क्या 1 जाति के हैं। हम दोनों भगवान भी चेतन, हम भी चेतन, व हमारा अंश ही, हम, उसके अंश वो, हमारा माता, पिता, भ्राता सब कुछ और सख् संबन्ध हमारा सखा है, हमको सदा शक्ति देता है जीवित रहने का। प्रत्येक इंद्रियों में, मन में, बुद्धि में, त कर्म करने की शक्ति देता है। केनोपनिषद कहता है य बचा नब्बुडुतमजेन बाग बिदके तदेव ब्रह्म तम बिधि, यन मन सान मनुतेजेनाहुर मनोमतम तदेव ब्रह्म पम बिद्धि या चक्छुसानपशयति, जे न चकछुमपश्यतितदेव ब्रह्म या छरोतरेननचुणोती, ये न सत्र तदेव ब्रह्म या प्राण न प्राणि। ये न प्राण प्रणीयते। तदेव ब्रह्म बिद्धि यानि</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>00:55:40,300</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13041_t004_main_kaun_mera_kaun_004.mp4</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>00:57:15,180</t>
+          <t>00:17:57,450</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:19:40,470</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>यद्यपि कुछ आइडिया होता है कि जो ‘मेरा’ नहीं है; वो ‘मैं’ होगा।</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>7:22.53</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>7:34.64</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1642,50 +1772,60 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13120_t083_mkmk_083</t>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>13038_t001_main_kaun_mera_kaun_001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13120_t083_mkmk_083.mp4</t>
+          <t>लेकिन आत्मा को उसके लिए दुनिया में कोई खुर्दबीन बनी है। न बनेगी। न। तो दुनिया में कोई बुद्धिमान पैदा हुआ था। न होगा। जो मैं को जान लो। बुद्धि से आईडिया से आईडिया, धुआ आ गए। आइडिया कहते हैं इसको यत्र, यत्र धूमस तततत्रागनी। लेकिन यहाँ आइडिया काम नहीं देगा। न प्रत्यक्ष न। अनुमान। तो तीसरा प्रमाण है। शब्द प्रमाण। शब्द प्रमाण से जाना जायेगा। मैं कौन हूँ, मेरा कौन है शब्द प्रमाण? किसे कहते हैं? शब्द प्रमाण। माने। ऐसा प्रमाण जिसके शब्द पर कोई डाउट न हो। तो ऐसे 2 होते हैं। 1 तो जो मय को जान चूका है। ऐसा</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>00:55:40,300</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/10-2024/13038_t001_main_kaun_mera_kaun_001.mp4</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>00:57:15,180</t>
+          <t>00:32:21,750</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:33:54,740</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>यद्यपि कुछ आइडिया होता है कि जो ‘मेरा’ नहीं है; वो ‘मैं’ होगा।</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>7:22.53</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>7:34.64</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1699,50 +1839,60 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13120_t083_mkmk_083</t>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>13061_t024_main_kaun_mera_kaun_024</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13120_t083_mkmk_083.mp4</t>
+          <t>उस किरण में कहाँ से आई? सूर्य से? तो फिर हमारी हैसियत, क्या है? हमारी तो पर्सनैलिटी भगवान पर डिपेंड करती है। इसलिए वेद कहता है सकारण करना। दीपा, दीपा, स्वेता, शतरोपनिशचछानौ प्रधान के तरगपतिरगुणशा श्वेता चतरो परिषद छे 16 प्रधान पुरुष स्वरा भगवान, हे जीव और माया का अध्यक्ष है, गवर्नर है। उसके बिना न जीव का जीवत्व है। न माया बिचारी जड़ वस्त का जड़त्व हैं, लेकिन उसकी शक्ति पाकर देखो, माया का हाल सो माया सब जगहीं नचावा शिव चतुरानन देखी, डेरा ही अपर जीव के ही लेके माही शिव बिरनचिकामोहई को है</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>00:55:40,300</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13061_t024_main_kaun_mera_kaun_024.mp4</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>00:57:15,180</t>
+          <t>00:29:15,380</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:30:37,300</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>भगवान् ने कहा—-“हाँ; रे! मैं सब जगह रहता हूँ; देख! देख ले आँख से; तेरा काल हूँ। मैं...मैं राक्षस-पाक्षस नहीं मानता; गन्दा-फंदा नहीं मानता; मैं सर्वत्र रहता हूँ।”</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>0:35:30</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>0:35:53</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1756,50 +1906,60 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>13120_t083_mkmk_083</t>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>13061_t024_main_kaun_mera_kaun_024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13120_t083_mkmk_083.mp4</t>
+          <t>कोई व्यक्ति कहीं भी, कभी भी रा शब्द को बोलता है। raबडाrातो मेरा रोम रोम रोमांचित हो जाता है। हर्ष के साथ कभी यह माँ बोलेगा, भले ही उसकी मंशा रावण। बोलने के यही भगवन नाम हैं, जो हम लोग संकीर्तन करते हैं। इसी के विषय में भगवान शंकर कह रहे हैं। अतो भगवन नाम, संकीर्तन आदि में बहुत अधिक मन का संयोग करके उसकी इंपार्टेंस को रियलाइज करते हुए बोलना चाहिए। भोग गोबिंद गो कला गोला गो गो पाला a बोली वृन्दावन बिहारी लाल की अब आप लोग सावधान हो जायें। मैं कौन मेरा कौन इन प्रश्नों के समाधान में अब तक आप</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>00:55:40,300</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13061_t024_main_kaun_mera_kaun_024.mp4</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>00:57:15,180</t>
+          <t>00:06:54,180</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:11:07,440</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>तीन प्रकार की वाणी होती है— विनिर्गत वाणी; स्मृत वाणी और कृत वाणी।</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>39:00.1</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>39:09.6</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1813,50 +1973,60 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13120_t083_mkmk_083</t>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>13108_t071_mkmk_071</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13120_t083_mkmk_083.mp4</t>
+          <t>पड़ते हैं यहाँ आप लोग बैठे हैं कितने उड़ रहे हैं जीव कहाँ उड़ रहे हैं अरे ये आँख नहीं देख रही हैं, खुर्दबीन लगाकर देखो तो मालूम पड़ जाए वो जा रहे हैं पेट में आपके आप बोलते हैं, खाते पीते हैं सब अरे पेट में आपके तमाम जीव हैं, खून देखा है हाँ उसमें जीव दिखते हैं जरा खुद बी सी देखो हर जगह जी तो संसार के पंच महाभूत के समान भी सब नहीं देख सकते हैं आँख से तो भगवान की बात क्या करते हैं भगवान को तो वो आपके बेटे से भी खराब दिखाई पड़ेगा तो आप कहेंगे यही भगवान है धन्य हैं तुम्हारे भगवान, गुरु जी तुमको भी धन्य हैं दोनों को नमस्कार कल ऐसी नहीं आऊंगा मैं तो समझ रहा था की अनन्त कोट कन्दर्प दर्प दलन पतियान हैं,</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>00:55:40,300</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13108_t071_mkmk_071.mp4</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>00:57:15,180</t>
+          <t>00:59:35,560</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>01:00:58,560</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>इतना सूक्ष्म है ‘मैं’ कि किसी यंत्र से कोई नहीं देख सका; न देख सकेगा</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>31:23.7</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>31:25.6</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1870,50 +2040,60 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>13120_t083_mkmk_083</t>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>13038_t001_main_kaun_mera_kaun_001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13120_t083_mkmk_083.mp4</t>
+          <t>हैं। वो प्रश्न कौन हैं? हम कौन हैं? हमारा कौन है? बस, हम कौन हैं? आपको ये प्रश्न सुनकर कुछ आश्यर्य अवश्य होगा। इसका उत्तर तो सब जानते हैं। नट। कोई कोई जानता है, करोड़ो में कोई जानता है। हम लोगो को भी जानना है। वेद कहता है हे द बेदी, दत, सत्य मस्त नच्चे दिहा बेदिन महति विनष्टि केनो पनिषद 25 अरे मनुष्यों। इस प्रश्न का उत्तर समझना बहुत आवश्यक है। अगर नहीं समझोगे तो बहुत बड़ी हानी होगी। क्या हानी होगी?</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>00:55:40,300</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/10-2024/13038_t001_main_kaun_mera_kaun_001.mp4</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>00:57:15,180</t>
+          <t>00:07:23,710</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:09:21,490</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>समस्त विश्व के समस्त प्राणी केवल एक प्रश्न के हल करने में लगे हैं; वो  प्रश्न कौन है? हम कौन हैं? हमारा कौन है?</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>00:07:09,500</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>00:07:38,800</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1927,50 +2107,60 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>13120_t083_mkmk_083</t>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>13136_t099_mkmk_099</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13120_t083_mkmk_083.mp4</t>
+          <t>में भेद भी होता है, अभेद भी होता है, अभेद यों है को, वह भी चेतन हैं, हम भी चेतन है, वह भी ज्ञान युक्त हैं, हम भी ज्ञान युक्त हैं, वह भी आनन्द सिंधु हैं और हम भी उसी आनन्द सिंधु के इच्छुक हैं। अर्थात हम कुछ अंश में उससे अभिन्न हैं, अधिक अंशों में भिन्न हैं। अनेक वेद मंत्रों के द्वारा आपको बताया गया है कि वो ब्रह्म इस जीव माया से पृथक हैं। वो सर्व शक्तिमान हैं, ये अल्प शक्तिमान हैं, वो सर्वग्य है, यह अल्पज्ञ है, वो मायाधीश हैं, ये मायाधीन हैं, अनेक अंतर है। वेदांत में बड़ा विस्तृत विचार किया गया है। यथा</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>00:55:40,300</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13136_t099_mkmk_099.mp4</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>00:57:15,180</t>
+          <t>00:12:32,740</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:14:07,480</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>तीन शरीर होते हैं; हम लोगों के | इसका नाम—  स्थूल शरीर; और एक होता है सूक्ष्म शरीर; और एक होता है कारण शरीर।</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>00:21:48,900</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>00:22:03,400</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1984,50 +2174,60 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>13120_t083_mkmk_083</t>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>13137_t100_mkmk_100</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13120_t083_mkmk_083.mp4</t>
+          <t>है। ये शरीर चलाने के लिए भगवान ने बनाया है। क्योंकि शरीर के बिना साधना नहीं हो सकती। तनु बिनु, भजन बेद नहीं बरना। तो ये अवतार का कारण नणामनश्रेजसारथाय। व्यक्त भगवतो निरगुण गुणात्म। 10 वनते, 14 विद्या ने फिर कहा, तेजी पर कल्याण करने के लिए भगवान जन्म लेते हैं और कर्म करते हैं। इसलिए गीता ने कहा जन्म कर्म चमे दिव्यम। अर्जुन, मेरा जन्म भी दिव्य है, कर्म भी दिव्य है और तेरा कर्म दिव्य है। जन्म डिब्बेमे देखो। 3 प्रकार का देह होता है देह। ये शरीर 1 पंच महाभूत का और 1 चिदानंद में देह दिव्य देह और 1 देही</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>00:55:40,300</t>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13137_t100_mkmk_100.mp4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>00:57:15,180</t>
+          <t>00:51:39,620</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:53:28,990</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>एक कमरा है; उसमें अँधेरा है। हमने बाहर से दीपक जलाकरके कमरे में रख दिया।तो; दीपक स्वयं प्रकाश है और उसने कमरे में भी प्रकाश कर दिया। दीपक को हमने दूसरे कमरे में लेजाके रख दिया। “तो?” तो कमरे में अँधेरा हो गया। ऐसे ही; ये जीव है; बाहर से इस शरीर में माँ के पेट में आया। आया; और फिर चला गया</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>00:19:21.86</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>00:20:16.86</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2072,7 +2272,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>basic-kn-index1</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2087,7 +2287,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>basic-kn-index1</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2102,7 +2302,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>basic-kn-index1</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2117,7 +2317,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>basic-kn-index1</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2132,7 +2332,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>basic-kn-index1</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2147,7 +2347,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>basic-kn-index1</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2162,7 +2362,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>basic-kn-index1</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2177,7 +2377,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>basic-kn-index1</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2192,7 +2392,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>basic-kn-index1</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2207,7 +2407,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>basic-kn-index1</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2222,7 +2422,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>basic-kn-index1</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2237,7 +2437,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>basic-kn-index1</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2252,7 +2452,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>basic-kn-index1</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2267,7 +2467,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>basic-kn-index2</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2282,7 +2482,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>basic-kn-index2</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2297,7 +2497,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>basic-kn-index2</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2312,7 +2512,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>basic-kn-index2</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2327,7 +2527,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>basic-kn-index2</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2342,7 +2542,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>basic-kn-index2</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2357,7 +2557,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>basic-kn-index2</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2372,7 +2572,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>basic-kn-index2</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2387,7 +2587,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>basic-kn-index2</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2402,7 +2602,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>basic-kn-index2</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2417,7 +2617,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>basic-kn-index2</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2432,7 +2632,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>basic-kn-index2</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2447,7 +2647,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>basic-kn-index2</t>
+          <t>basic-kn-index</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2465,6 +2665,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Average Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2502,70 +2745,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Average Accuracy</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>basic-kn-index1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>basic-kn-index2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>

--- a/report/test_report.xlsx
+++ b/report/test_report.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,6 +2228,877 @@
         </is>
       </c>
       <c r="M27" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>How many scriptures are there?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13128_t091_mkmk_091</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>यानि ये लोग वेद को कोट करते हैं कि इस वेद मंत्र के द्वारा हम ये सिद्धांत प्रस्तुत कर रहे हैं। पूर्व मीमांसा, इसके रचयिता जैमिनी हैं। ये 2 ग्रंथ इसमें बड़े बड़े हैं। 1 पूर्व मीमांसा और 1 कर्म मि मानसा। ये भारद्वाज का लिखा हुआ है। लेकिन कर्म मीमांसा का प्रचार अधिक नहीं है। जैमिनी के दर्शन का बहुत प्रचार है। ये क्या कहते हैं? ईश्वर वगैरह की आवश्यकता नहीं। ये ईश्वर, ईश्वर लोग बकते रहे। फिर कर्म करो क्या कर्म? यज्ञ किसके लिये? जब ईश्वर भी नहीं मानते। आप देवताओं के लिए। और देवता भी प्रधान नहीं हैं। मंत्र प्रधान है बेद। और उससे मिलेगा क्या स्वर्ग? तो उसमें तो दुख निवृति होगी। नहीं। अरे बड़ा</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13128_t091_mkmk_091.mp4</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>00:15:15,010</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>00:16:48,620</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>तीन प्रकार की वाणी होती है— विनिर्गत वाणी; स्मृत वाणी और कृत वाणी।</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>00:39:00,100</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>00:39:09,600</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>कितने प्रकार के शास्त्र हैं?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>13092_t055_mkmk_055</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ने 100 अट्ठासी उपनिषदों को बताया है, लिखा है। और इनके नंबर में भी श्रीराम शास्त्री के कुछ भेद है। हमारे यहां विद्वानों, ने, आचार्यों ने अपने अपने हिसाब से नंबर किए हैं। इसलिए कुछ मत बहुमत वैश्म है। वेदांत में देख लो जिसको ब्रह्म सूत्र कहते हैं। शारीरिक भाष्य कहते हैं। तो सबसे इम्पोर्टेंट। हमारे यहाँ छे दर्शन होते हैं। आस्तिक दर्शन कहलाते हैं? वेदांत न्याय, सान, मिमांसा, पा, तंजलवैशेशिक, इनमें और दर्शन जो हैं वो तो तत्वज्ञान बताते हैं और दुःख निवृत्ति उनका उद्देश्य है। उनका विशेष महत्व नहीं है। केवल 1 वेदांत शास्त्र हमारे यहाँ ऐसा है जो आनंद प्राप्ति का लक्ष्य बताता है और</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13092_t055_mkmk_055.mp4</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>00:09:03,510</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>00:10:39,400</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>तीन प्रकार की वाणी होती है— विनिर्गत वाणी; स्मृत वाणी और कृत वाणी।</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>00:39:00,100</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>00:39:09,600</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>कितने शरीर हैं हमारे पास?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>13051_t014_main_kaun_mera_kaun_014</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>पहले कैसे लोग रिकॉर्ड करते थे, तो कहते थे महाराज जी, हमारा कैसे खत्म हो जायेगा? तो हम ऐसे हाथ उठा देंगे। तो आप तो थोड़ी देर रुक जाइएगा। यानी कुछ गोली ली निकालिए कुछ कीजिए। तब तक मैं कैचर बदल लूं। तो हमको वैसे मारना पड़ता था, नहीं तो वो उनके टेप में आगे नहीं। और ये फिलोसॉफी तो ऐसा सब्जेक्ट है। 1 शब्द भी गड़बड़ कर, 2 तो सब उल्टा हो जाएगा। अब देखो न। 1 शब्द की तो बात है। 1 कहता है? ब्रह्म निराकार ही होता है, बस लड़ाई होगी, ब्रह्म साकार ही होता है। अब असल में क्या है ही न, कहो भी कह। 2 झगड़ा ब्रह्म निराकार भी होता है, ब्रह्म साकार भी होता है। 1 शब्द का मामला सब उल्टा हो जाता है। तो</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13051_t014_main_kaun_mera_kaun_014.mp4</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>00:41:19,650</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>00:42:48,350</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>तीन शरीर होते हैं; हम लोगों के | इसका नाम—  स्थूल शरीर; और एक होता है सूक्ष्म शरीर; और एक होता है कारण शरीर।</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>00:21:48,900</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>00:22:03,400</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>मैं शरीर हूँ?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>13105_t068_mkmk_068</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ये शरीर का। तुम शरीर तो हो नहीं, काय को फील करते हो। तुम्हारे शरीर को गाली दे रहा है। तुमको तो नहीं दे रहा है। तुम्हारे मकान की ओर। कोई चप्पल मार रहा है। तो क्यों रोते चिल्लाते हो। आज मैं अपने को देही मानता हूँ। इसलिए तो शिशुपाल ने जब सौ गाली दी, भगवान गिन रहे थे। 1, 2, 3, 76, 77, अठत्तर उन्यासी 80। जब सौ पूरे हो गए, तो चक्कर बुलाया और सिर काट दिया। अब सारे राजा राजाओं के सामने ये नाटक हुआ। राजाओं ने देखा, हाँ, ये तो भगवान है। और वो निकली आत्मा और श्री कृष्ण में मिल गई। युधिष्ठर वहीं बैठे थे, उन्होंने अकेले में भगवान से प्रश्न किया। महाराज वो आपमें मिल गया। उसको तो नरक</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13105_t068_mkmk_068.mp4</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>00:47:29,510</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>00:49:06,380</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>00:31:23,700</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>00:31:25,600</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>आप कुछ पागल हो? क्या बकवास कर रहे हो?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13108_t071_mkmk_071</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>भगवान का बहुत बड़ा पागल खाना है, क्योंकि उनकी ये पागलों की संख्या भी अनंत है। 10, 20 करोड़ अरब नहीं, अनंत जीव माया बद्ध हैं, आनंद पाने के लिए व्याकुल हैं। और चुंकी बेड के अनुसार प्रत्येक जीव अनादि है, आज है, सनातन है, अतएव सदा से आनंद के लिए पागल है। और चूंकी कोई जीव 1 क्षण को भी अकरमा नहीं रह सकता, इसलिए प्रत्येक जीव अनाधिकार से प्रत्येक क्षण, तैलधारा व दबि्षिन्न केवल आनंद प्राप्ति के हेतु ही पागल है। चिंतन मनन प्लानिंग प्रैक्टिस में लगा है। अगर आप कहें हैं, मुझे जो पागल हैं, वो पागल हैं। हाँ, वो भी पागल है। भगवान ने हमको पागल डिक्लेयर किया।</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13108_t071_mkmk_071.mp4</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>00:08:54,560</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>00:10:29,370</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>इन्द्रियाँ भी सब यहीं पड़ी।</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>13041_t004_main_kaun_mera_kaun_004</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>हैं। सजाते सम्बन्ध क्या 1 जाति के हैं। हम दोनों भगवान भी चेतन, हम भी चेतन, व हमारा अंश ही, हम, उसके अंश वो, हमारा माता, पिता, भ्राता सब कुछ और सख् संबन्ध हमारा सखा है, हमको सदा शक्ति देता है जीवित रहने का। प्रत्येक इंद्रियों में, मन में, बुद्धि में, त कर्म करने की शक्ति देता है। केनोपनिषद कहता है य बचा नब्बुडुतमजेन बाग बिदके तदेव ब्रह्म तम बिधि, यन मन सान मनुतेजेनाहुर मनोमतम तदेव ब्रह्म पम बिद्धि या चक्छुसानपशयति, जे न चकछुमपश्यतितदेव ब्रह्म या छरोतरेननचुणोती, ये न सत्र तदेव ब्रह्म या प्राण न प्राणि। ये न प्राण प्रणीयते। तदेव ब्रह्म बिद्धि यानि</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13041_t004_main_kaun_mera_kaun_004.mp4</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>00:17:57,450</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>00:19:40,470</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>यद्यपि कुछ आइडिया होता है कि जो ‘मेरा’ नहीं है; वो ‘मैं’ होगा।</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>7:22.53</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>7:34.64</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>यद्यपि कुछ आइडिया होता है कि जो ‘मेरा’ नहीं है; वो ‘मैं’ होगा।</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>13038_t001_main_kaun_mera_kaun_001</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>लेकिन आत्मा को उसके लिए दुनिया में कोई खुर्दबीन बनी है। न बनेगी। न। तो दुनिया में कोई बुद्धिमान पैदा हुआ था। न होगा। जो मैं को जान लो। बुद्धि से आईडिया से आईडिया, धुआ आ गए। आइडिया कहते हैं इसको यत्र, यत्र धूमस तततत्रागनी। लेकिन यहाँ आइडिया काम नहीं देगा। न प्रत्यक्ष न। अनुमान। तो तीसरा प्रमाण है। शब्द प्रमाण। शब्द प्रमाण से जाना जायेगा। मैं कौन हूँ, मेरा कौन है शब्द प्रमाण? किसे कहते हैं? शब्द प्रमाण। माने। ऐसा प्रमाण जिसके शब्द पर कोई डाउट न हो। तो ऐसे 2 होते हैं। 1 तो जो मय को जान चूका है। ऐसा</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/10-2024/13038_t001_main_kaun_mera_kaun_001.mp4</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>00:32:21,750</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>00:33:54,740</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>यद्यपि कुछ आइडिया होता है कि जो ‘मेरा’ नहीं है; वो ‘मैं’ होगा।</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>7:22.53</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>7:34.64</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>भगवान कहाँ हैं?</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>13061_t024_main_kaun_mera_kaun_024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>उस किरण में कहाँ से आई? सूर्य से? तो फिर हमारी हैसियत, क्या है? हमारी तो पर्सनैलिटी भगवान पर डिपेंड करती है। इसलिए वेद कहता है सकारण करना। दीपा, दीपा, स्वेता, शतरोपनिशचछानौ प्रधान के तरगपतिरगुणशा श्वेता चतरो परिषद छे 16 प्रधान पुरुष स्वरा भगवान, हे जीव और माया का अध्यक्ष है, गवर्नर है। उसके बिना न जीव का जीवत्व है। न माया बिचारी जड़ वस्त का जड़त्व हैं, लेकिन उसकी शक्ति पाकर देखो, माया का हाल सो माया सब जगहीं नचावा शिव चतुरानन देखी, डेरा ही अपर जीव के ही लेके माही शिव बिरनचिकामोहई को है</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13061_t024_main_kaun_mera_kaun_024.mp4</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>00:29:15,380</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>00:30:37,300</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>भगवान् ने कहा—-“हाँ; रे! मैं सब जगह रहता हूँ; देख! देख ले आँख से; तेरा काल हूँ। मैं...मैं राक्षस-पाक्षस नहीं मानता; गन्दा-फंदा नहीं मानता; मैं सर्वत्र रहता हूँ।”</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0:35:30</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0:35:53</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>कितने प्रकार के वाणी होते हैं?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>13061_t024_main_kaun_mera_kaun_024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>कोई व्यक्ति कहीं भी, कभी भी रा शब्द को बोलता है। raबडाrातो मेरा रोम रोम रोमांचित हो जाता है। हर्ष के साथ कभी यह माँ बोलेगा, भले ही उसकी मंशा रावण। बोलने के यही भगवन नाम हैं, जो हम लोग संकीर्तन करते हैं। इसी के विषय में भगवान शंकर कह रहे हैं। अतो भगवन नाम, संकीर्तन आदि में बहुत अधिक मन का संयोग करके उसकी इंपार्टेंस को रियलाइज करते हुए बोलना चाहिए। भोग गोबिंद गो कला गोला गो गो पाला a बोली वृन्दावन बिहारी लाल की अब आप लोग सावधान हो जायें। मैं कौन मेरा कौन इन प्रश्नों के समाधान में अब तक आप</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13061_t024_main_kaun_mera_kaun_024.mp4</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>00:06:54,180</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>00:11:07,440</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>तीन प्रकार की वाणी होती है— विनिर्गत वाणी; स्मृत वाणी और कृत वाणी।</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>39:00.1</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>39:09.6</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>मैं जीव को देख सकता हूँ?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13108_t071_mkmk_071</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>पड़ते हैं यहाँ आप लोग बैठे हैं कितने उड़ रहे हैं जीव कहाँ उड़ रहे हैं अरे ये आँख नहीं देख रही हैं, खुर्दबीन लगाकर देखो तो मालूम पड़ जाए वो जा रहे हैं पेट में आपके आप बोलते हैं, खाते पीते हैं सब अरे पेट में आपके तमाम जीव हैं, खून देखा है हाँ उसमें जीव दिखते हैं जरा खुद बी सी देखो हर जगह जी तो संसार के पंच महाभूत के समान भी सब नहीं देख सकते हैं आँख से तो भगवान की बात क्या करते हैं भगवान को तो वो आपके बेटे से भी खराब दिखाई पड़ेगा तो आप कहेंगे यही भगवान है धन्य हैं तुम्हारे भगवान, गुरु जी तुमको भी धन्य हैं दोनों को नमस्कार कल ऐसी नहीं आऊंगा मैं तो समझ रहा था की अनन्त कोट कन्दर्प दर्प दलन पतियान हैं,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13108_t071_mkmk_071.mp4</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>00:59:35,560</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>01:00:58,560</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>इतना सूक्ष्म है ‘मैं’ कि किसी यंत्र से कोई नहीं देख सका; न देख सकेगा</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>31:23.7</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>31:25.6</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>सारे जीवों का क्या प्रश्न है?</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>13038_t001_main_kaun_mera_kaun_001</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>हैं। वो प्रश्न कौन हैं? हम कौन हैं? हमारा कौन है? बस, हम कौन हैं? आपको ये प्रश्न सुनकर कुछ आश्यर्य अवश्य होगा। इसका उत्तर तो सब जानते हैं। नट। कोई कोई जानता है, करोड़ो में कोई जानता है। हम लोगो को भी जानना है। वेद कहता है हे द बेदी, दत, सत्य मस्त नच्चे दिहा बेदिन महति विनष्टि केनो पनिषद 25 अरे मनुष्यों। इस प्रश्न का उत्तर समझना बहुत आवश्यक है। अगर नहीं समझोगे तो बहुत बड़ी हानी होगी। क्या हानी होगी?</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/10-2024/13038_t001_main_kaun_mera_kaun_001.mp4</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>00:07:23,710</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>00:09:21,490</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>समस्त विश्व के समस्त प्राणी केवल एक प्रश्न के हल करने में लगे हैं; वो  प्रश्न कौन है? हम कौन हैं? हमारा कौन है?</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>00:07:09,500</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>00:07:38,800</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>हमारे पास कितने विभिन्न प्रकार के शरीर होते हैं, और वे किस प्रकार से एक-दूसरे से भिन्न होते हैं?</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>13136_t099_mkmk_099</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>में भेद भी होता है, अभेद भी होता है, अभेद यों है को, वह भी चेतन हैं, हम भी चेतन है, वह भी ज्ञान युक्त हैं, हम भी ज्ञान युक्त हैं, वह भी आनन्द सिंधु हैं और हम भी उसी आनन्द सिंधु के इच्छुक हैं। अर्थात हम कुछ अंश में उससे अभिन्न हैं, अधिक अंशों में भिन्न हैं। अनेक वेद मंत्रों के द्वारा आपको बताया गया है कि वो ब्रह्म इस जीव माया से पृथक हैं। वो सर्व शक्तिमान हैं, ये अल्प शक्तिमान हैं, वो सर्वग्य है, यह अल्पज्ञ है, वो मायाधीश हैं, ये मायाधीन हैं, अनेक अंतर है। वेदांत में बड़ा विस्तृत विचार किया गया है। यथा</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13136_t099_mkmk_099.mp4</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>00:12:32,740</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>00:14:07,480</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>तीन शरीर होते हैं; हम लोगों के | इसका नाम—  स्थूल शरीर; और एक होता है सूक्ष्म शरीर; और एक होता है कारण शरीर।</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>00:21:48,900</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>00:22:03,400</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>आत्मा के शरीर में बाहर से प्रवेश करने, आने और जाने को समझाने के लिए महाराज जी कौन सा उदाहरण देते हैं</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>13137_t100_mkmk_100</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>है। ये शरीर चलाने के लिए भगवान ने बनाया है। क्योंकि शरीर के बिना साधना नहीं हो सकती। तनु बिनु, भजन बेद नहीं बरना। तो ये अवतार का कारण नणामनश्रेजसारथाय। व्यक्त भगवतो निरगुण गुणात्म। 10 वनते, 14 विद्या ने फिर कहा, तेजी पर कल्याण करने के लिए भगवान जन्म लेते हैं और कर्म करते हैं। इसलिए गीता ने कहा जन्म कर्म चमे दिव्यम। अर्जुन, मेरा जन्म भी दिव्य है, कर्म भी दिव्य है और तेरा कर्म दिव्य है। जन्म डिब्बेमे देखो। 3 प्रकार का देह होता है देह। ये शरीर 1 पंच महाभूत का और 1 चिदानंद में देह दिव्य देह और 1 देही</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://jkp-llm.s3.ap-south-1.amazonaws.com/Videos/11-2024/13137_t100_mkmk_100.mp4</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>00:51:39,620</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>00:53:28,990</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>एक कमरा है; उसमें अँधेरा है। हमने बाहर से दीपक जलाकरके कमरे में रख दिया।तो; दीपक स्वयं प्रकाश है और उसने कमरे में भी प्रकाश कर दिया। दीपक को हमने दूसरे कमरे में लेजाके रख दिया। “तो?” तो कमरे में अँधेरा हो गया। ऐसे ही; ये जीव है; बाहर से इस शरीर में माँ के पेट में आया। आया; और फिर चला गया</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>00:19:21.86</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>00:20:16.86</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2244,7 +3115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2656,6 +3527,201 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>similarity-search</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>similarity-search</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>similarity-search</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>similarity-search</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>similarity-search</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>similarity-search</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>similarity-search</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>similarity-search</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>similarity-search</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>similarity-search</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>similarity-search</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>similarity-search</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>basic-kn-index</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>similarity-search</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>
